--- a/Klinisk/Samples_to_uppsala_extracted.xlsx
+++ b/Klinisk/Samples_to_uppsala_extracted.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A2914-F4AD-214E-BF78-0DC4D0BB2743}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9499601-7DA1-8946-91DF-E86DDAF75620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F960420D-8791-9D44-A32F-49D1F7E6781B}"/>
-    <workbookView xWindow="-2540" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{2ACFB147-6B77-474B-A81A-3BDCF790820D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{F960420D-8791-9D44-A32F-49D1F7E6781B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="12340" activeTab="4" xr2:uid="{2ACFB147-6B77-474B-A81A-3BDCF790820D}"/>
   </bookViews>
   <sheets>
     <sheet name="Box" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -876,6 +876,21 @@
   </si>
   <si>
     <t>Not enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambi </t>
+  </si>
+  <si>
+    <t>Perla</t>
+  </si>
+  <si>
+    <t>SSA18</t>
+  </si>
+  <si>
+    <t>SSA19</t>
+  </si>
+  <si>
+    <t>Bambi</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1795,7 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2145,42 +2160,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="42" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="42" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="42" xfId="2" applyBorder="1"/>
@@ -2196,6 +2175,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="41" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2206,107 +2223,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -2495,326 +2412,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2865,16 +2462,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2900,736 +2487,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3704,6 +2561,26 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3999,8 +2876,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4576F339-3343-3440-B83F-9D96FDDB1FAD}" name="Table1" displayName="Table1" ref="A1:N18" totalsRowShown="0" tableBorderDxfId="136">
-  <autoFilter ref="A1:N18" xr:uid="{AB140B1C-EDFA-DD4C-A91D-F4BD256B1BF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4576F339-3343-3440-B83F-9D96FDDB1FAD}" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0" tableBorderDxfId="20">
+  <autoFilter ref="A1:N20" xr:uid="{AB140B1C-EDFA-DD4C-A91D-F4BD256B1BF9}"/>
   <sortState ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -4017,15 +2894,15 @@
     <tableColumn id="11" xr3:uid="{6F54445A-6FB3-8E48-92D2-B0E198E76D57}" name="Diagnosis"/>
     <tableColumn id="12" xr3:uid="{2F603FAD-CC9F-3B4D-BEA5-364939DC961A}" name="Grade"/>
     <tableColumn id="13" xr3:uid="{4102FA63-3E7C-BC4F-A9AF-7A5BF266460A}" name="cfDNA"/>
-    <tableColumn id="14" xr3:uid="{5F817813-A873-4C4D-ADB3-989E467F56C2}" name="Sample date" dataDxfId="135"/>
-    <tableColumn id="22" xr3:uid="{5601E604-9450-BA48-B1AC-36D5B2A38D70}" name="Notes2" dataDxfId="134"/>
+    <tableColumn id="14" xr3:uid="{5F817813-A873-4C4D-ADB3-989E467F56C2}" name="Sample date" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{5601E604-9450-BA48-B1AC-36D5B2A38D70}" name="Notes2" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7015F3-3CA5-D54F-8658-9F640A1E3844}" name="Table2" displayName="Table2" ref="C1:M19" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7015F3-3CA5-D54F-8658-9F640A1E3844}" name="Table2" displayName="Table2" ref="C1:M19" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="C1:M19" xr:uid="{8E0FD02E-1483-ED41-938C-F8EC133C2B5F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4040,12 +2917,12 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B89064EB-CAAC-A14C-AFB6-2529AFA312FA}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FA6B1028-6E5C-1D44-9415-11C55204B6E5}" name="Normal" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C4D4E59E-6617-2145-8E8A-2B947F47C94E}" name="Tumor" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{262B3A2B-AC89-464E-8B7A-38FA40690838}" name="RIN" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{996E10E0-8F79-AE48-93C7-1E23F883B86C}" name="cfDNA" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{0F02A162-92E5-DE4F-A6F5-B82E0CB9031E}" name="All" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{B89064EB-CAAC-A14C-AFB6-2529AFA312FA}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FA6B1028-6E5C-1D44-9415-11C55204B6E5}" name="Normal" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C4D4E59E-6617-2145-8E8A-2B947F47C94E}" name="Tumor" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{262B3A2B-AC89-464E-8B7A-38FA40690838}" name="RIN" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{996E10E0-8F79-AE48-93C7-1E23F883B86C}" name="cfDNA" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0F02A162-92E5-DE4F-A6F5-B82E0CB9031E}" name="All" dataDxfId="3">
       <calculatedColumnFormula>IF(D2="No","No",
 IF(E2="No","No",
 IF(F2&lt;7,"No",
@@ -4053,9 +2930,9 @@
 ))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CF27FB8F-3C3E-9545-B1A2-71FFF086026B}" name="Full set"/>
-    <tableColumn id="8" xr3:uid="{D13FB077-CE18-F240-BDF1-1E2AFF64FE19}" name="Enough for pcr-free" dataDxfId="12" dataCellStyle="Bad"/>
-    <tableColumn id="9" xr3:uid="{4BF90F7B-F9EF-634E-A1F1-E9D265F1EFE6}" name="Malign" dataDxfId="11" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{D4256DC4-957C-9142-B4E9-BCAD7B6F79DD}" name="Diagnosis" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{D13FB077-CE18-F240-BDF1-1E2AFF64FE19}" name="Enough for pcr-free" dataDxfId="2" dataCellStyle="Bad"/>
+    <tableColumn id="9" xr3:uid="{4BF90F7B-F9EF-634E-A1F1-E9D265F1EFE6}" name="Malign" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{D4256DC4-957C-9142-B4E9-BCAD7B6F79DD}" name="Diagnosis" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{494B940A-55FB-EA4C-8AEC-D9843C6FBA98}" name="Grade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4364,14 +3241,14 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="18.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="31"/>
@@ -4381,17 +3258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="K1" s="31" t="s">
         <v>156</v>
       </c>
@@ -4429,10 +3306,10 @@
         <v>160</v>
       </c>
       <c r="L2" s="66"/>
-      <c r="M2" s="160" t="s">
+      <c r="M2" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="N2" s="160"/>
+      <c r="N2" s="177"/>
     </row>
     <row r="3" spans="1:14" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
@@ -4467,10 +3344,10 @@
         <v>159</v>
       </c>
       <c r="L3" s="66"/>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="161"/>
+      <c r="N3" s="178"/>
     </row>
     <row r="4" spans="1:14" ht="100" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
@@ -4505,10 +3382,10 @@
         <v>157</v>
       </c>
       <c r="L4" s="66"/>
-      <c r="M4" s="162" t="s">
+      <c r="M4" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="162"/>
+      <c r="N4" s="179"/>
     </row>
     <row r="5" spans="1:14" ht="101" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
@@ -4543,10 +3420,10 @@
         <v>158</v>
       </c>
       <c r="L5" s="66"/>
-      <c r="M5" s="164" t="s">
+      <c r="M5" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="N5" s="164"/>
+      <c r="N5" s="181"/>
     </row>
     <row r="6" spans="1:14" ht="73" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -4783,16 +3660,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:R30"/>
+  <dimension ref="A3:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
@@ -5923,6 +4800,9 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
       <c r="M30" s="108"/>
       <c r="N30" s="92">
         <v>26</v>
@@ -5931,14 +4811,24 @@
         <v>180</v>
       </c>
     </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J5:J7 J9:J23">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L7 L9:L24 D5:D17 D19:D25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5951,14 +4841,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7E8B5-FAE9-E341-8D92-562442B76729}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="105" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -6747,8 +5637,24 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="A19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="176"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -6756,6 +5662,26 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="176"/>
     </row>
     <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -6777,7 +5703,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -6788,10 +5714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -6824,11 +5750,11 @@
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="182" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -6844,10 +5770,10 @@
         <v>141</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="171"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -6862,8 +5788,8 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -6876,11 +5802,11 @@
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -6892,9 +5818,9 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -6902,15 +5828,15 @@
       <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="184" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -6918,13 +5844,13 @@
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -6932,7 +5858,7 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="27"/>
@@ -6946,7 +5872,7 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="27"/>
@@ -6960,7 +5886,7 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="167"/>
+      <c r="A12" s="184"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -6974,7 +5900,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -7011,7 +5937,7 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -7031,7 +5957,7 @@
       <c r="B1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="C1" s="170" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="116" t="s">
@@ -7072,10 +5998,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="121">
@@ -7091,7 +6017,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="127" t="str">
-        <f>IF(D2="No","No",
+        <f t="shared" ref="H2:H11" si="0">IF(D2="No","No",
 IF(E2="No","No",
 IF(F2&lt;7,"No",
 IF(G2="No","No","Yes"
@@ -7101,10 +6027,10 @@
       <c r="I2">
         <v>10</v>
       </c>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="164" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="131" t="s">
@@ -7121,10 +6047,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="172" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="122">
@@ -7140,17 +6066,13 @@
         <v>56</v>
       </c>
       <c r="H3" s="127" t="str">
-        <f>IF(D3="No","No",
-IF(E3="No","No",
-IF(F3&lt;7,"No",
-IF(G3="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="167" t="s">
         <v>70</v>
       </c>
       <c r="L3" s="131" t="s">
@@ -7167,10 +6089,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="172" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="122">
@@ -7186,17 +6108,13 @@
         <v>56</v>
       </c>
       <c r="H4" s="127" t="str">
-        <f>IF(D4="No","No",
-IF(E4="No","No",
-IF(F4&lt;7,"No",
-IF(G4="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="177" t="s">
+      <c r="K4" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="131" t="s">
@@ -7213,7 +6131,7 @@
       <c r="B5" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="172" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="122">
@@ -7229,17 +6147,13 @@
         <v>56</v>
       </c>
       <c r="H5" s="127" t="str">
-        <f>IF(D5="No","No",
-IF(E5="No","No",
-IF(F5&lt;7,"No",
-IF(G5="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="179" t="s">
+      <c r="K5" s="167" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="131" t="s">
@@ -7256,7 +6170,7 @@
       <c r="B6" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="172" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="122">
@@ -7272,17 +6186,13 @@
         <v>56</v>
       </c>
       <c r="H6" s="127" t="str">
-        <f>IF(D6="No","No",
-IF(E6="No","No",
-IF(F6&lt;7,"No",
-IF(G6="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J6" s="174" t="s">
+      <c r="J6" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="131" t="s">
@@ -7299,7 +6209,7 @@
       <c r="B7" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="172" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="122">
@@ -7315,17 +6225,13 @@
         <v>56</v>
       </c>
       <c r="H7" s="127" t="str">
-        <f>IF(D7="No","No",
-IF(E7="No","No",
-IF(F7&lt;7,"No",
-IF(G7="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="131" t="s">
@@ -7342,7 +6248,7 @@
       <c r="B8" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="172" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="122">
@@ -7358,17 +6264,13 @@
         <v>56</v>
       </c>
       <c r="H8" s="127" t="str">
-        <f>IF(D8="No","No",
-IF(E8="No","No",
-IF(F8&lt;7,"No",
-IF(G8="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="177" t="s">
+      <c r="K8" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="131" t="s">
@@ -7382,10 +6284,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="172" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="122">
@@ -7401,17 +6303,13 @@
         <v>56</v>
       </c>
       <c r="H9" s="127" t="str">
-        <f>IF(D9="No","No",
-IF(E9="No","No",
-IF(F9&lt;7,"No",
-IF(G9="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J9" s="173" t="s">
+      <c r="J9" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="177" t="s">
+      <c r="K9" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="131" t="s">
@@ -7428,7 +6326,7 @@
       <c r="B10" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="122">
@@ -7444,17 +6342,13 @@
         <v>56</v>
       </c>
       <c r="H10" s="127" t="str">
-        <f>IF(D10="No","No",
-IF(E10="No","No",
-IF(F10&lt;7,"No",
-IF(G10="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J10" s="174" t="s">
+      <c r="J10" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="177" t="s">
+      <c r="K10" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="131" t="s">
@@ -7468,10 +6362,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="172" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="122">
@@ -7487,17 +6381,13 @@
         <v>56</v>
       </c>
       <c r="H11" s="127" t="str">
-        <f>IF(D11="No","No",
-IF(E11="No","No",
-IF(F11&lt;7,"No",
-IF(G11="No","No","Yes"
-))))</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K11" s="177" t="s">
+      <c r="K11" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="131" t="s">
@@ -7514,7 +6404,7 @@
       <c r="B12" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="184" t="s">
+      <c r="C12" s="172" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="122">
@@ -7540,7 +6430,7 @@
       <c r="J12" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="177" t="s">
+      <c r="K12" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L12" s="131" t="s">
@@ -7554,10 +6444,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="172" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="122">
@@ -7573,17 +6463,17 @@
         <v>56</v>
       </c>
       <c r="H13" s="127" t="str">
-        <f>IF(D13="No","No",
+        <f t="shared" ref="H13:H19" si="1">IF(D13="No","No",
 IF(E13="No","No",
 IF(F13&lt;7,"No",
 IF(G13="No","No","Yes"
 ))))</f>
         <v>No</v>
       </c>
-      <c r="J13" s="172" t="s">
+      <c r="J13" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="K13" s="177" t="s">
+      <c r="K13" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="131" t="s">
@@ -7600,7 +6490,7 @@
       <c r="B14" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="172" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="122">
@@ -7616,17 +6506,13 @@
         <v>56</v>
       </c>
       <c r="H14" s="127" t="str">
-        <f>IF(D14="No","No",
-IF(E14="No","No",
-IF(F14&lt;7,"No",
-IF(G14="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J14" s="172" t="s">
+      <c r="J14" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="K14" s="177" t="s">
+      <c r="K14" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="131" t="s">
@@ -7641,7 +6527,7 @@
       <c r="B15" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="172" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="122">
@@ -7657,17 +6543,13 @@
         <v>70</v>
       </c>
       <c r="H15" s="127" t="str">
-        <f>IF(D15="No","No",
-IF(E15="No","No",
-IF(F15&lt;7,"No",
-IF(G15="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J15" s="173" t="s">
+      <c r="J15" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="K15" s="177" t="s">
+      <c r="K15" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L15" s="131" t="s">
@@ -7684,7 +6566,7 @@
       <c r="B16" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="172" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="122">
@@ -7700,17 +6582,13 @@
         <v>70</v>
       </c>
       <c r="H16" s="127" t="str">
-        <f>IF(D16="No","No",
-IF(E16="No","No",
-IF(F16&lt;7,"No",
-IF(G16="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J16" s="173" t="s">
+      <c r="J16" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="K16" s="177" t="s">
+      <c r="K16" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="131" t="s">
@@ -7727,7 +6605,7 @@
       <c r="B17" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="172" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="122">
@@ -7743,17 +6621,13 @@
         <v>70</v>
       </c>
       <c r="H17" s="127" t="str">
-        <f>IF(D17="No","No",
-IF(E17="No","No",
-IF(F17&lt;7,"No",
-IF(G17="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J17" s="174" t="s">
+      <c r="J17" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="177" t="s">
+      <c r="K17" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L17" s="131" t="s">
@@ -7770,7 +6644,7 @@
       <c r="B18" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="172" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="122">
@@ -7786,17 +6660,13 @@
         <v>70</v>
       </c>
       <c r="H18" s="127" t="str">
-        <f>IF(D18="No","No",
-IF(E18="No","No",
-IF(F18&lt;7,"No",
-IF(G18="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J18" s="172" t="s">
+      <c r="J18" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="177" t="s">
+      <c r="K18" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L18" s="131" t="s">
@@ -7813,7 +6683,7 @@
       <c r="B19" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="185" t="s">
+      <c r="C19" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="123">
@@ -7829,23 +6699,19 @@
         <v>70</v>
       </c>
       <c r="H19" s="127" t="str">
-        <f>IF(D19="No","No",
-IF(E19="No","No",
-IF(F19&lt;7,"No",
-IF(G19="No","No","Yes"
-))))</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J19" s="180" t="s">
+      <c r="J19" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="178" t="s">
+      <c r="K19" s="166" t="s">
         <v>56</v>
       </c>
       <c r="L19" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="175">
+      <c r="M19" s="163">
         <v>2</v>
       </c>
     </row>
@@ -7861,35 +6727,35 @@
     <sortCondition descending="1" ref="D2:D19"/>
   </sortState>
   <conditionalFormatting sqref="F2:F19">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E19">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThanOrEqual">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>2</formula>
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H19">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
